--- a/biology/Médecine/Exploration_fonctionnelle/Exploration_fonctionnelle.xlsx
+++ b/biology/Médecine/Exploration_fonctionnelle/Exploration_fonctionnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, une exploration fonctionnelle est un examen destiné à apprécier la manière dont un organe assure sa fonction. Il s'agit d'examens dynamiques, pouvant intéresser la pneumologie, l'endocrinologie ou l'orthopédie.
 Une exploration fonctionnelle respiratoire, en pneumologie, évalue les volumes et les débits d'air générés lors de la ventilation.
